--- a/Data/UNSD — Methodology.xlsx
+++ b/Data/UNSD — Methodology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://texastechuniversity-my.sharepoint.com/personal/joao-pedro_bastos_ttu_edu/Documents/Personal/Projects/Papers/Plano Real/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://texastechuniversity-my.sharepoint.com/personal/joao-pedro_bastos_ttu_edu/Documents/Personal/Projects/Code/GitHub/populism-index/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{4EEA3EB3-FC56-D944-8541-7B2C1FDDF5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CFA5066-1A9B-604D-9FEF-B19C96CEB9D0}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{4EEA3EB3-FC56-D944-8541-7B2C1FDDF5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84B58E60-47E3-0348-B6C5-510D250753E1}"/>
   <bookViews>
-    <workbookView xWindow="17560" yWindow="520" windowWidth="25600" windowHeight="19020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8600" yWindow="780" windowWidth="25600" windowHeight="19020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1661,6 +1661,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1684,9 +1685,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1702,6 +1703,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2003,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G226" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="I237" sqref="I237"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="75" zoomScaleNormal="165" workbookViewId="0">
+      <selection activeCell="I62" sqref="A62:I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
